--- a/data/pca/factorExposure/factorExposure_2017-06-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-06-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02330462412245327</v>
+        <v>-0.009560860489659226</v>
       </c>
       <c r="C2">
-        <v>-0.007211794086804986</v>
+        <v>0.04496619329365682</v>
       </c>
       <c r="D2">
-        <v>0.03288444619103696</v>
+        <v>0.02988833781109218</v>
       </c>
       <c r="E2">
-        <v>-0.005332871150988027</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03356436086609699</v>
+      </c>
+      <c r="F2">
+        <v>0.01003419141569465</v>
+      </c>
+      <c r="G2">
+        <v>0.09673713376616797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01754540021600103</v>
+        <v>-0.04553907215149988</v>
       </c>
       <c r="C3">
-        <v>0.0416358542958238</v>
+        <v>0.0951832819280614</v>
       </c>
       <c r="D3">
-        <v>0.09384343623459601</v>
+        <v>0.01643543983190206</v>
       </c>
       <c r="E3">
-        <v>-0.01364211258899171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.1007232992582736</v>
+      </c>
+      <c r="F3">
+        <v>0.003155204042848113</v>
+      </c>
+      <c r="G3">
+        <v>0.188600868190403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02457154143726847</v>
+        <v>-0.05553605695067888</v>
       </c>
       <c r="C4">
-        <v>0.006839668733491675</v>
+        <v>0.06840703312323503</v>
       </c>
       <c r="D4">
-        <v>0.08707999575564608</v>
+        <v>0.02444133094599207</v>
       </c>
       <c r="E4">
-        <v>0.02407804885582437</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02678737314024213</v>
+      </c>
+      <c r="F4">
+        <v>0.01135242771648094</v>
+      </c>
+      <c r="G4">
+        <v>0.09649317948685633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01430639052074446</v>
+        <v>-0.03687693244248129</v>
       </c>
       <c r="C6">
-        <v>-0.007942156986704653</v>
+        <v>0.05331143121151549</v>
       </c>
       <c r="D6">
-        <v>0.0833961857204062</v>
+        <v>0.01676996027330443</v>
       </c>
       <c r="E6">
-        <v>0.01493009446358095</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02789098491449268</v>
+      </c>
+      <c r="F6">
+        <v>0.008656210854675953</v>
+      </c>
+      <c r="G6">
+        <v>0.07237006478122515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01135176860037039</v>
+        <v>-0.02026442316191898</v>
       </c>
       <c r="C7">
-        <v>0.002599387352663215</v>
+        <v>0.04153781222277277</v>
       </c>
       <c r="D7">
-        <v>0.04432568902080935</v>
+        <v>0.01329395948628991</v>
       </c>
       <c r="E7">
-        <v>0.06232168875447036</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.00394819003836768</v>
+      </c>
+      <c r="F7">
+        <v>-0.003639255068452862</v>
+      </c>
+      <c r="G7">
+        <v>0.1284675718672849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0006448940075799896</v>
+        <v>-0.003117693176750031</v>
       </c>
       <c r="C8">
-        <v>-0.0007947941453439524</v>
+        <v>0.02492308576985976</v>
       </c>
       <c r="D8">
-        <v>0.005108853694415167</v>
+        <v>0.004025085670805382</v>
       </c>
       <c r="E8">
-        <v>0.007574480095525437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02311175035094631</v>
+      </c>
+      <c r="F8">
+        <v>0.006412793262714877</v>
+      </c>
+      <c r="G8">
+        <v>0.06866206311657998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0168361205523379</v>
+        <v>-0.03322667397435509</v>
       </c>
       <c r="C9">
-        <v>0.009584747722065634</v>
+        <v>0.04982654821513426</v>
       </c>
       <c r="D9">
-        <v>0.06488582506643119</v>
+        <v>0.01676316076021452</v>
       </c>
       <c r="E9">
-        <v>0.01107544903200265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.0179828796881465</v>
+      </c>
+      <c r="F9">
+        <v>0.01034864684267098</v>
+      </c>
+      <c r="G9">
+        <v>0.09600947266725877</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02559863045880983</v>
+        <v>-0.09872267625806015</v>
       </c>
       <c r="C10">
-        <v>0.179985678688194</v>
+        <v>-0.180843158166644</v>
       </c>
       <c r="D10">
-        <v>-0.08820517807747642</v>
+        <v>-0.0145313222988059</v>
       </c>
       <c r="E10">
-        <v>-0.02189053402125233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.0206915437361103</v>
+      </c>
+      <c r="F10">
+        <v>-0.02047158961247547</v>
+      </c>
+      <c r="G10">
+        <v>0.06048942340326006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0007802294994625884</v>
+        <v>-0.03442076455504202</v>
       </c>
       <c r="C11">
-        <v>-0.001975224457660519</v>
+        <v>0.05524216152083994</v>
       </c>
       <c r="D11">
-        <v>0.0579750213368362</v>
+        <v>0.002417995047273108</v>
       </c>
       <c r="E11">
-        <v>0.002865996349594974</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.009574333664536834</v>
+      </c>
+      <c r="F11">
+        <v>0.02140013393540515</v>
+      </c>
+      <c r="G11">
+        <v>0.08278480363196758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005568857742159128</v>
+        <v>-0.03624463152985986</v>
       </c>
       <c r="C12">
-        <v>-0.0002436658768896209</v>
+        <v>0.0493869110556815</v>
       </c>
       <c r="D12">
-        <v>0.05291891308427282</v>
+        <v>0.006177519122674728</v>
       </c>
       <c r="E12">
-        <v>0.01468227689434076</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.001357824880453025</v>
+      </c>
+      <c r="F12">
+        <v>0.001500314531271581</v>
+      </c>
+      <c r="G12">
+        <v>0.07685848885916123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02432557974584258</v>
+        <v>-0.01526932010073556</v>
       </c>
       <c r="C13">
-        <v>0.0140820403373164</v>
+        <v>0.04051558367029701</v>
       </c>
       <c r="D13">
-        <v>0.03816200153419517</v>
+        <v>0.02639069035845342</v>
       </c>
       <c r="E13">
-        <v>-0.005503668447530547</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03117412710888596</v>
+      </c>
+      <c r="F13">
+        <v>0.006886926266508186</v>
+      </c>
+      <c r="G13">
+        <v>0.1204312530342476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.008990105906965917</v>
+        <v>-0.008478218325768052</v>
       </c>
       <c r="C14">
-        <v>0.01205859285235955</v>
+        <v>0.02886707761840623</v>
       </c>
       <c r="D14">
-        <v>0.01927690449923809</v>
+        <v>0.009813331509397014</v>
       </c>
       <c r="E14">
-        <v>0.007805137447696142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.002658182712300176</v>
+      </c>
+      <c r="F14">
+        <v>-0.008225443000459205</v>
+      </c>
+      <c r="G14">
+        <v>0.1008766783752424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001547531759320478</v>
+        <v>-0.03300116829744938</v>
       </c>
       <c r="C16">
-        <v>0.003876220639068046</v>
+        <v>0.04896205609077199</v>
       </c>
       <c r="D16">
-        <v>0.05428547116257872</v>
+        <v>0.001960581106584897</v>
       </c>
       <c r="E16">
-        <v>0.01270238956797151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.008510886502281833</v>
+      </c>
+      <c r="F16">
+        <v>0.002425691487632016</v>
+      </c>
+      <c r="G16">
+        <v>0.08450353421919835</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01564947739441969</v>
+        <v>-0.02140863491028928</v>
       </c>
       <c r="C19">
-        <v>0.01847979607649539</v>
+        <v>0.05326228801670902</v>
       </c>
       <c r="D19">
-        <v>0.04721996743838049</v>
+        <v>0.01882697637573191</v>
       </c>
       <c r="E19">
-        <v>0.01778345997709252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06739219938984883</v>
+      </c>
+      <c r="F19">
+        <v>0.0213182579889186</v>
+      </c>
+      <c r="G19">
+        <v>0.1376549310632402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01143002261091712</v>
+        <v>-0.01477046928349802</v>
       </c>
       <c r="C20">
-        <v>0.004388285547249323</v>
+        <v>0.03980466015219444</v>
       </c>
       <c r="D20">
-        <v>0.03595031591609558</v>
+        <v>0.01410327700947612</v>
       </c>
       <c r="E20">
-        <v>-0.008303234394993834</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02877044401739847</v>
+      </c>
+      <c r="F20">
+        <v>-0.01117529879145262</v>
+      </c>
+      <c r="G20">
+        <v>0.1067103777607462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01576526190849088</v>
+        <v>-0.01265950090043235</v>
       </c>
       <c r="C21">
-        <v>0.01436776200653409</v>
+        <v>0.040339888785317</v>
       </c>
       <c r="D21">
-        <v>0.03819979054109447</v>
+        <v>0.0185869449713112</v>
       </c>
       <c r="E21">
-        <v>0.009758629624868599</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.0427362611572798</v>
+      </c>
+      <c r="F21">
+        <v>0.0003881424108002063</v>
+      </c>
+      <c r="G21">
+        <v>0.1334751874344433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0005392094646235598</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0001404656662144374</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.0002451434549411941</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.0007866804695334143</v>
+      </c>
+      <c r="F22">
+        <v>0.0001595332446408805</v>
+      </c>
+      <c r="G22">
+        <v>0.002175983745247567</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0005435537399264951</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0001400896091953002</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.0002452699698685089</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.0007922049134113405</v>
+      </c>
+      <c r="F23">
+        <v>0.0001578482967792364</v>
+      </c>
+      <c r="G23">
+        <v>0.002186635454893826</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004259712437515759</v>
+        <v>-0.02793721656801033</v>
       </c>
       <c r="C24">
-        <v>-0.007870839161131299</v>
+        <v>0.05170004519561745</v>
       </c>
       <c r="D24">
-        <v>0.05150975240020514</v>
+        <v>0.007223702380989017</v>
       </c>
       <c r="E24">
-        <v>0.01065145720177707</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.005485379413965511</v>
+      </c>
+      <c r="F24">
+        <v>0.01416623155822413</v>
+      </c>
+      <c r="G24">
+        <v>0.08419314197125234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01250259088011175</v>
+        <v>-0.04275196632917416</v>
       </c>
       <c r="C25">
-        <v>0.009574293911106122</v>
+        <v>0.0594762483598826</v>
       </c>
       <c r="D25">
-        <v>0.05987170730710376</v>
+        <v>0.01116044230222163</v>
       </c>
       <c r="E25">
-        <v>0.01265407330676589</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.001614171389639878</v>
+      </c>
+      <c r="F25">
+        <v>0.007912480409524502</v>
+      </c>
+      <c r="G25">
+        <v>0.09355691619479529</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02326560506149794</v>
+        <v>-0.01365928055018142</v>
       </c>
       <c r="C26">
-        <v>0.006042437680016552</v>
+        <v>0.01161054965749337</v>
       </c>
       <c r="D26">
-        <v>0.003216158040651536</v>
+        <v>0.02389567314533675</v>
       </c>
       <c r="E26">
-        <v>0.01001239533302112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.005462187023387632</v>
+      </c>
+      <c r="F26">
+        <v>-0.008942284256788115</v>
+      </c>
+      <c r="G26">
+        <v>0.07959139759774339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.04950382296041687</v>
+        <v>-0.1260878376373116</v>
       </c>
       <c r="C28">
-        <v>0.2489042777363951</v>
+        <v>-0.2360300707100309</v>
       </c>
       <c r="D28">
-        <v>-0.1172602306054386</v>
+        <v>-0.005332041731854015</v>
       </c>
       <c r="E28">
-        <v>-0.0006815524354902346</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.008339856407950888</v>
+      </c>
+      <c r="F28">
+        <v>-0.01419998943985809</v>
+      </c>
+      <c r="G28">
+        <v>0.05764358904206996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.009320204056416368</v>
+        <v>-0.009488236130418477</v>
       </c>
       <c r="C29">
-        <v>0.01556315030725427</v>
+        <v>0.02268581098634018</v>
       </c>
       <c r="D29">
-        <v>0.01818215512971175</v>
+        <v>0.008819268932670113</v>
       </c>
       <c r="E29">
-        <v>0.004909930044245294</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.001594953134588599</v>
+      </c>
+      <c r="F29">
+        <v>-0.01752281713587037</v>
+      </c>
+      <c r="G29">
+        <v>0.09361487090068316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.0240308712587844</v>
+        <v>-0.04099328909808975</v>
       </c>
       <c r="C30">
-        <v>-0.009584981562840014</v>
+        <v>0.06974502944288373</v>
       </c>
       <c r="D30">
-        <v>0.09898782811410682</v>
+        <v>0.02901121154155508</v>
       </c>
       <c r="E30">
-        <v>-0.02968743456294234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05240731891030828</v>
+      </c>
+      <c r="F30">
+        <v>0.04531750519634346</v>
+      </c>
+      <c r="G30">
+        <v>0.1100007575606699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01059827952371489</v>
+        <v>-0.05295589221092517</v>
       </c>
       <c r="C31">
-        <v>0.03431879070828475</v>
+        <v>0.03778161300344976</v>
       </c>
       <c r="D31">
-        <v>0.04166224038118801</v>
+        <v>0.003650251755745864</v>
       </c>
       <c r="E31">
-        <v>0.01043757597371932</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.001960379119497691</v>
+      </c>
+      <c r="F31">
+        <v>-0.03906434108981919</v>
+      </c>
+      <c r="G31">
+        <v>0.08975576385096254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.004895076319041402</v>
+        <v>-0.001130849735875662</v>
       </c>
       <c r="C32">
-        <v>0.01802953733339564</v>
+        <v>0.02587935593175088</v>
       </c>
       <c r="D32">
-        <v>0.009148868724949711</v>
+        <v>-0.003379739427530699</v>
       </c>
       <c r="E32">
-        <v>0.05879031875448399</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01980762982797181</v>
+      </c>
+      <c r="F32">
+        <v>0.0370217294898189</v>
+      </c>
+      <c r="G32">
+        <v>0.0948322919295792</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.0150440108714863</v>
+        <v>-0.0278782894360315</v>
       </c>
       <c r="C33">
-        <v>0.0207471087331712</v>
+        <v>0.0506080568282365</v>
       </c>
       <c r="D33">
-        <v>0.04891428117484479</v>
+        <v>0.01572082728872836</v>
       </c>
       <c r="E33">
-        <v>-0.0182504976927096</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03540140172549618</v>
+      </c>
+      <c r="F33">
+        <v>0.01657938320087557</v>
+      </c>
+      <c r="G33">
+        <v>0.14313372583575</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.003824157657011553</v>
+        <v>-0.0401268171247727</v>
       </c>
       <c r="C34">
-        <v>0.009642407166736786</v>
+        <v>0.06189373608122228</v>
       </c>
       <c r="D34">
-        <v>0.05682757185701115</v>
+        <v>-0.004632641289907982</v>
       </c>
       <c r="E34">
-        <v>0.01775246920533128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0004380759009299883</v>
+      </c>
+      <c r="F34">
+        <v>0.02026637968747066</v>
+      </c>
+      <c r="G34">
+        <v>0.09184346097484282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.0136483439812952</v>
+        <v>-0.0158933963043948</v>
       </c>
       <c r="C36">
-        <v>0.01774718990023096</v>
+        <v>0.009585290857179829</v>
       </c>
       <c r="D36">
-        <v>0.009852060372393188</v>
+        <v>0.01224309226241774</v>
       </c>
       <c r="E36">
-        <v>0.008536437084770608</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.004077918270792245</v>
+      </c>
+      <c r="F36">
+        <v>-0.007041254023546243</v>
+      </c>
+      <c r="G36">
+        <v>0.084040664510857</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.00191666919009743</v>
+        <v>-0.0321933181391609</v>
       </c>
       <c r="C38">
-        <v>0.03062274949565335</v>
+        <v>0.03195760200130699</v>
       </c>
       <c r="D38">
-        <v>0.05576620453180565</v>
+        <v>-0.007596165413757724</v>
       </c>
       <c r="E38">
-        <v>0.01662733229200628</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.002558920005113134</v>
+      </c>
+      <c r="F38">
+        <v>-0.01873249625785665</v>
+      </c>
+      <c r="G38">
+        <v>0.08319680985601126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.004028267930866625</v>
+        <v>-0.03521015658919977</v>
       </c>
       <c r="C39">
-        <v>-0.0319208089168898</v>
+        <v>0.08138749005575026</v>
       </c>
       <c r="D39">
-        <v>0.1016199108945999</v>
+        <v>0.01175736512377448</v>
       </c>
       <c r="E39">
-        <v>8.66864234727206e-05</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02095151842766077</v>
+      </c>
+      <c r="F39">
+        <v>0.02600864729233954</v>
+      </c>
+      <c r="G39">
+        <v>0.08435928598357997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01227195702579871</v>
+        <v>-0.01510678344124723</v>
       </c>
       <c r="C40">
-        <v>0.008901154659333461</v>
+        <v>0.04319429280788091</v>
       </c>
       <c r="D40">
-        <v>0.04336663144802828</v>
+        <v>0.01478628449930078</v>
       </c>
       <c r="E40">
-        <v>0.01677612197550188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02077292945561873</v>
+      </c>
+      <c r="F40">
+        <v>-0.01597528412413777</v>
+      </c>
+      <c r="G40">
+        <v>0.1220022758860539</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.006899491559006684</v>
+        <v>-0.02014599403126837</v>
       </c>
       <c r="C41">
-        <v>0.02230051838926794</v>
+        <v>0.001701530975780801</v>
       </c>
       <c r="D41">
-        <v>-0.009712233298768228</v>
+        <v>0.004248116835794644</v>
       </c>
       <c r="E41">
-        <v>0.004170579086963082</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002541519050712697</v>
+      </c>
+      <c r="F41">
+        <v>-0.01315390299938054</v>
+      </c>
+      <c r="G41">
+        <v>0.07356507550470844</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.089483755782098</v>
+        <v>-0.007961236980129663</v>
       </c>
       <c r="C42">
-        <v>-0.04949663797287837</v>
+        <v>0.03649094714786538</v>
       </c>
       <c r="D42">
-        <v>0.1705618140794144</v>
+        <v>0.09159347058943682</v>
       </c>
       <c r="E42">
-        <v>-0.4470510358103773</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.01482642785745086</v>
+      </c>
+      <c r="F42">
+        <v>-0.03634151490770085</v>
+      </c>
+      <c r="G42">
+        <v>-0.1377746240839362</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.008307971770704557</v>
+        <v>-0.03389032040266984</v>
       </c>
       <c r="C43">
-        <v>0.02688889692088862</v>
+        <v>0.01748486843478597</v>
       </c>
       <c r="D43">
-        <v>-0.005471637653259913</v>
+        <v>0.005983154677801152</v>
       </c>
       <c r="E43">
-        <v>0.003876519370881921</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01628532911878144</v>
+      </c>
+      <c r="F43">
+        <v>-0.003510931258223535</v>
+      </c>
+      <c r="G43">
+        <v>0.1077812339406454</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003532417492000262</v>
+        <v>-0.01230339479882155</v>
       </c>
       <c r="C44">
-        <v>-0.0001203377933524797</v>
+        <v>0.0592468687009844</v>
       </c>
       <c r="D44">
-        <v>0.05545839514915605</v>
+        <v>0.006717524016858056</v>
       </c>
       <c r="E44">
-        <v>0.01652344868187652</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01768085202113083</v>
+      </c>
+      <c r="F44">
+        <v>-0.00889382701321478</v>
+      </c>
+      <c r="G44">
+        <v>0.1003984364933704</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01155213901143123</v>
+        <v>-0.008008641197114311</v>
       </c>
       <c r="C46">
-        <v>0.01187718730591276</v>
+        <v>0.01808579014271433</v>
       </c>
       <c r="D46">
-        <v>0.007442588404280641</v>
+        <v>0.01251045718145826</v>
       </c>
       <c r="E46">
-        <v>-0.002032023280440878</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001545924690252289</v>
+      </c>
+      <c r="F46">
+        <v>-0.01758040288926443</v>
+      </c>
+      <c r="G46">
+        <v>0.09669369769946172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.004943903158584758</v>
+        <v>-0.07701149702379642</v>
       </c>
       <c r="C47">
-        <v>0.03948085748062827</v>
+        <v>0.06673571314699132</v>
       </c>
       <c r="D47">
-        <v>0.0740310413255227</v>
+        <v>-0.005265738752579671</v>
       </c>
       <c r="E47">
-        <v>0.01252918077493531</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.008042793827276897</v>
+      </c>
+      <c r="F47">
+        <v>-0.05391324352640085</v>
+      </c>
+      <c r="G47">
+        <v>0.07990481090411006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.004799353126047315</v>
+        <v>-0.02030608400567454</v>
       </c>
       <c r="C48">
-        <v>0.0227978582312642</v>
+        <v>0.0129055374555914</v>
       </c>
       <c r="D48">
-        <v>0.02241854687455528</v>
+        <v>0.001674321063567068</v>
       </c>
       <c r="E48">
-        <v>0.003346852446630364</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.001514528024474328</v>
+      </c>
+      <c r="F48">
+        <v>-0.02029878647834179</v>
+      </c>
+      <c r="G48">
+        <v>0.08711084043014306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.007160825780536787</v>
+        <v>-0.07528903904851653</v>
       </c>
       <c r="C50">
-        <v>0.0437504422762036</v>
+        <v>0.0702053724284581</v>
       </c>
       <c r="D50">
-        <v>0.07122966712925154</v>
+        <v>-0.002913373321073774</v>
       </c>
       <c r="E50">
-        <v>0.03544474726076545</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.009108058995074979</v>
+      </c>
+      <c r="F50">
+        <v>-0.0557287722876669</v>
+      </c>
+      <c r="G50">
+        <v>0.09444858944569007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007926662190315459</v>
+        <v>-0.01400725939534251</v>
       </c>
       <c r="C51">
-        <v>0.01274858787331624</v>
+        <v>0.03601397238595617</v>
       </c>
       <c r="D51">
-        <v>0.01690000258550637</v>
+        <v>0.01035721004877916</v>
       </c>
       <c r="E51">
-        <v>0.008116212377046263</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01898422121920648</v>
+      </c>
+      <c r="F51">
+        <v>0.02281635142693482</v>
+      </c>
+      <c r="G51">
+        <v>0.123647413661092</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.00869883225115051</v>
+        <v>-0.08151092766482369</v>
       </c>
       <c r="C53">
-        <v>0.04592265593744679</v>
+        <v>0.08476639187233491</v>
       </c>
       <c r="D53">
-        <v>0.1300221381552315</v>
+        <v>-0.003961992119669364</v>
       </c>
       <c r="E53">
-        <v>0.02561670001094082</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02652277304555325</v>
+      </c>
+      <c r="F53">
+        <v>-0.06684322879068491</v>
+      </c>
+      <c r="G53">
+        <v>0.07829727916773906</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.00267321428390143</v>
+        <v>-0.0297516609166194</v>
       </c>
       <c r="C54">
-        <v>0.03383429360914824</v>
+        <v>0.0165354323398769</v>
       </c>
       <c r="D54">
-        <v>0.002701849934247773</v>
+        <v>-0.001296074259095415</v>
       </c>
       <c r="E54">
-        <v>-0.004913667196300106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01276989187904759</v>
+      </c>
+      <c r="F54">
+        <v>2.053473940899695e-05</v>
+      </c>
+      <c r="G54">
+        <v>0.09659859516527596</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.004577125023879638</v>
+        <v>-0.07157181686143564</v>
       </c>
       <c r="C55">
-        <v>0.02956602841083848</v>
+        <v>0.06896139949561765</v>
       </c>
       <c r="D55">
-        <v>0.1055705820919088</v>
+        <v>-0.005319319921142029</v>
       </c>
       <c r="E55">
-        <v>0.01045694597274249</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02345217534099012</v>
+      </c>
+      <c r="F55">
+        <v>-0.06181696318016479</v>
+      </c>
+      <c r="G55">
+        <v>0.05355384479436929</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.007777964402119037</v>
+        <v>-0.1372046825830188</v>
       </c>
       <c r="C56">
-        <v>0.06661348487700527</v>
+        <v>0.1085124177960187</v>
       </c>
       <c r="D56">
-        <v>0.1605150232931799</v>
+        <v>-0.01294484453026213</v>
       </c>
       <c r="E56">
-        <v>0.020695990116923</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03283509862137526</v>
+      </c>
+      <c r="F56">
+        <v>-0.08109990748631908</v>
+      </c>
+      <c r="G56">
+        <v>0.02618199805130566</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02279976875400318</v>
+        <v>-0.0065148183522534</v>
       </c>
       <c r="C57">
-        <v>-0.00298853767055723</v>
+        <v>0.009253726514983594</v>
       </c>
       <c r="D57">
-        <v>0.04758679331183867</v>
+        <v>0.02355216851052744</v>
       </c>
       <c r="E57">
-        <v>-0.01495445302538485</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.0250358910207156</v>
+      </c>
+      <c r="F57">
+        <v>0.00953660626042903</v>
+      </c>
+      <c r="G57">
+        <v>0.02847939447548125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.0144782587123047</v>
+        <v>-0.05514740460019833</v>
       </c>
       <c r="C58">
-        <v>0.05509980672543437</v>
+        <v>0.05482320169644871</v>
       </c>
       <c r="D58">
-        <v>0.1847187822018175</v>
+        <v>0.02529119106754857</v>
       </c>
       <c r="E58">
-        <v>-0.5912561467936204</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9334939029478339</v>
+      </c>
+      <c r="F58">
+        <v>-0.2350958841985712</v>
+      </c>
+      <c r="G58">
+        <v>-0.1542463848116796</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.04959648301787613</v>
+        <v>-0.1603804657935267</v>
       </c>
       <c r="C59">
-        <v>0.2751970302659736</v>
+        <v>-0.2030156804848167</v>
       </c>
       <c r="D59">
-        <v>-0.1004822385034592</v>
+        <v>-0.01082214028832165</v>
       </c>
       <c r="E59">
-        <v>0.01155128094832348</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.0193003420730228</v>
+      </c>
+      <c r="F59">
+        <v>0.004409285837355263</v>
+      </c>
+      <c r="G59">
+        <v>0.04211696925963318</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.04598875431188149</v>
+        <v>-0.2862122841550941</v>
       </c>
       <c r="C60">
-        <v>0.1461123383578204</v>
+        <v>0.1078594265894995</v>
       </c>
       <c r="D60">
-        <v>0.1406911763132873</v>
+        <v>0.01271285239647057</v>
       </c>
       <c r="E60">
-        <v>0.06054392815162475</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.00255172187875477</v>
+      </c>
+      <c r="F60">
+        <v>0.3459279250985495</v>
+      </c>
+      <c r="G60">
+        <v>-0.1359015018717192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003444946419424125</v>
+        <v>-0.03758815651553559</v>
       </c>
       <c r="C61">
-        <v>-0.001596617587061715</v>
+        <v>0.06779676222592626</v>
       </c>
       <c r="D61">
-        <v>0.08015084031863086</v>
+        <v>0.005257397287081955</v>
       </c>
       <c r="E61">
-        <v>0.01795772451440117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01327281308234113</v>
+      </c>
+      <c r="F61">
+        <v>0.01439260146327308</v>
+      </c>
+      <c r="G61">
+        <v>0.08722852284831382</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.00854752779339712</v>
+        <v>-0.01500768020845199</v>
       </c>
       <c r="C63">
-        <v>0.005609570284775913</v>
+        <v>0.03017193014579788</v>
       </c>
       <c r="D63">
-        <v>0.02699044676635017</v>
+        <v>0.008424113552782792</v>
       </c>
       <c r="E63">
-        <v>0.02170172739072624</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.001119817131429828</v>
+      </c>
+      <c r="F63">
+        <v>-0.01636875188293264</v>
+      </c>
+      <c r="G63">
+        <v>0.09073799642047048</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.009653713705906751</v>
+        <v>-0.04729505911388675</v>
       </c>
       <c r="C64">
-        <v>0.02277324811271192</v>
+        <v>0.04739251580673239</v>
       </c>
       <c r="D64">
-        <v>0.06285105907962868</v>
+        <v>0.006186022361516171</v>
       </c>
       <c r="E64">
-        <v>0.003085196109988976</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.0002563739152942579</v>
+      </c>
+      <c r="F64">
+        <v>0.006589570940925008</v>
+      </c>
+      <c r="G64">
+        <v>0.08422108136424855</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01713850696405336</v>
+        <v>-0.07478371085087493</v>
       </c>
       <c r="C65">
-        <v>-0.006913955120534724</v>
+        <v>0.06050228334261963</v>
       </c>
       <c r="D65">
-        <v>0.1019325301233032</v>
+        <v>0.01646240250720999</v>
       </c>
       <c r="E65">
-        <v>0.02424791299994096</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.02923997998814816</v>
+      </c>
+      <c r="F65">
+        <v>0.02910302387905839</v>
+      </c>
+      <c r="G65">
+        <v>0.02934916389893543</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.004368787825656764</v>
+        <v>-0.05116200529515456</v>
       </c>
       <c r="C66">
-        <v>-0.02949134841375721</v>
+        <v>0.1110634955546352</v>
       </c>
       <c r="D66">
-        <v>0.1384307865321425</v>
+        <v>0.01173795544051962</v>
       </c>
       <c r="E66">
-        <v>0.008463319861950177</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03047264883309213</v>
+      </c>
+      <c r="F66">
+        <v>0.03574595032979857</v>
+      </c>
+      <c r="G66">
+        <v>0.0994774731440202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.005032112382421815</v>
+        <v>-0.0550802831608271</v>
       </c>
       <c r="C67">
-        <v>0.04976822322413084</v>
+        <v>0.03560950767173865</v>
       </c>
       <c r="D67">
-        <v>0.0720388344159177</v>
+        <v>-0.005976713728687937</v>
       </c>
       <c r="E67">
-        <v>0.02000471074410553</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.004270854352327351</v>
+      </c>
+      <c r="F67">
+        <v>-0.01763362420167999</v>
+      </c>
+      <c r="G67">
+        <v>0.07421465273659429</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.0638961690108415</v>
+        <v>-0.1539222007548627</v>
       </c>
       <c r="C68">
-        <v>0.2500303476568046</v>
+        <v>-0.2687358085295191</v>
       </c>
       <c r="D68">
-        <v>-0.1459677025895481</v>
+        <v>0.006623896149142354</v>
       </c>
       <c r="E68">
-        <v>-0.02940176548204</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01260189745383701</v>
+      </c>
+      <c r="F68">
+        <v>-0.03175104965342989</v>
+      </c>
+      <c r="G68">
+        <v>0.0308844210160848</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0003567079328826846</v>
+        <v>-0.08126717651922785</v>
       </c>
       <c r="C69">
-        <v>0.03240094143130007</v>
+        <v>0.06980462994565469</v>
       </c>
       <c r="D69">
-        <v>0.07765725561063162</v>
+        <v>-0.009235162818308535</v>
       </c>
       <c r="E69">
-        <v>0.02575073211975521</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02395095789364467</v>
+      </c>
+      <c r="F69">
+        <v>-0.03653367226125619</v>
+      </c>
+      <c r="G69">
+        <v>0.08937477517562899</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.04828293340955463</v>
+        <v>-0.1401563013238026</v>
       </c>
       <c r="C71">
-        <v>0.2177163493550959</v>
+        <v>-0.2275695805029993</v>
       </c>
       <c r="D71">
-        <v>-0.09882812333613603</v>
+        <v>-0.002022633616865784</v>
       </c>
       <c r="E71">
-        <v>-0.01981344179454528</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03329331768698803</v>
+      </c>
+      <c r="F71">
+        <v>-0.01835924704230962</v>
+      </c>
+      <c r="G71">
+        <v>0.06588223694894861</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.001492951076887238</v>
+        <v>-0.08451076147849849</v>
       </c>
       <c r="C72">
-        <v>0.02075330162540157</v>
+        <v>0.0744509179720225</v>
       </c>
       <c r="D72">
-        <v>0.1132633056513386</v>
+        <v>-0.007983841095425357</v>
       </c>
       <c r="E72">
-        <v>0.02845085850620186</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.002582444335945543</v>
+      </c>
+      <c r="F72">
+        <v>0.0403402569585534</v>
+      </c>
+      <c r="G72">
+        <v>0.07603906119646518</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.05896138381403931</v>
+        <v>-0.3742360223143004</v>
       </c>
       <c r="C73">
-        <v>0.1532614619122956</v>
+        <v>0.1189389533496628</v>
       </c>
       <c r="D73">
-        <v>0.2508749565589508</v>
+        <v>0.02188630708302232</v>
       </c>
       <c r="E73">
-        <v>0.03540984454057243</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06737433135356564</v>
+      </c>
+      <c r="F73">
+        <v>0.5760042547227125</v>
+      </c>
+      <c r="G73">
+        <v>-0.267319789555075</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.005172954184749351</v>
+        <v>-0.1050753513212796</v>
       </c>
       <c r="C74">
-        <v>0.05345485779924222</v>
+        <v>0.1104621161467338</v>
       </c>
       <c r="D74">
-        <v>0.1772278249279436</v>
+        <v>-0.009796325274138418</v>
       </c>
       <c r="E74">
-        <v>0.01784653246660573</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.00958801835850564</v>
+      </c>
+      <c r="F74">
+        <v>-0.07109917379784332</v>
+      </c>
+      <c r="G74">
+        <v>0.07155283468883193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01484411751086611</v>
+        <v>-0.2493833283577384</v>
       </c>
       <c r="C75">
-        <v>0.1354587541698054</v>
+        <v>0.1511616466700364</v>
       </c>
       <c r="D75">
-        <v>0.3015651017296563</v>
+        <v>-0.03139434825062228</v>
       </c>
       <c r="E75">
-        <v>0.02329163633711229</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05801434260046976</v>
+      </c>
+      <c r="F75">
+        <v>-0.1769086767643133</v>
+      </c>
+      <c r="G75">
+        <v>-0.04764184483506166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.003666287889296029</v>
+        <v>-0.121032188727412</v>
       </c>
       <c r="C76">
-        <v>0.08484086407885093</v>
+        <v>0.1118649719362291</v>
       </c>
       <c r="D76">
-        <v>0.2256863346962136</v>
+        <v>-0.01970228389757084</v>
       </c>
       <c r="E76">
-        <v>0.0576343678426677</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.03512756377100787</v>
+      </c>
+      <c r="F76">
+        <v>-0.1172524706962356</v>
+      </c>
+      <c r="G76">
+        <v>0.04612839713204953</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01520578556427164</v>
+        <v>-0.06865061113051966</v>
       </c>
       <c r="C77">
-        <v>0.01892997133449225</v>
+        <v>0.06202586472998906</v>
       </c>
       <c r="D77">
-        <v>0.06994964760668508</v>
+        <v>0.01152489458964197</v>
       </c>
       <c r="E77">
-        <v>-0.002596988845383512</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04300937463653765</v>
+      </c>
+      <c r="F77">
+        <v>0.01034041342532055</v>
+      </c>
+      <c r="G77">
+        <v>0.06419007364991434</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.005837576988023809</v>
+        <v>-0.04275156029912158</v>
       </c>
       <c r="C78">
-        <v>0.009806023719549577</v>
+        <v>0.05296934277113008</v>
       </c>
       <c r="D78">
-        <v>0.06029801454181372</v>
+        <v>0.00562881183479982</v>
       </c>
       <c r="E78">
-        <v>0.004053060341680251</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02250894447081544</v>
+      </c>
+      <c r="F78">
+        <v>0.03520548510083051</v>
+      </c>
+      <c r="G78">
+        <v>0.09099436133409587</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.00987767617717253</v>
+        <v>-0.04309821414789311</v>
       </c>
       <c r="C80">
-        <v>0.009272225272436997</v>
+        <v>0.07247346736091116</v>
       </c>
       <c r="D80">
-        <v>0.1439619853427181</v>
+        <v>0.01079208609140231</v>
       </c>
       <c r="E80">
-        <v>0.6279666101130499</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03084940167114285</v>
+      </c>
+      <c r="F80">
+        <v>0.02719692090844116</v>
+      </c>
+      <c r="G80">
+        <v>0.3620907100768196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.01003935195449724</v>
+        <v>-0.1399388388268956</v>
       </c>
       <c r="C81">
-        <v>0.08217489093745285</v>
+        <v>0.09678020258178363</v>
       </c>
       <c r="D81">
-        <v>0.1781529616692639</v>
+        <v>-0.01568499981839891</v>
       </c>
       <c r="E81">
-        <v>0.03227747525233938</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03466369415548315</v>
+      </c>
+      <c r="F81">
+        <v>-0.134409009466676</v>
+      </c>
+      <c r="G81">
+        <v>0.01981934996675703</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1261995749128604</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07247519508955096</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.008213739934559794</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.09029099945516723</v>
+      </c>
+      <c r="F82">
+        <v>-0.03685735805237648</v>
+      </c>
+      <c r="G82">
+        <v>0.05291118807028323</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.008263482650974745</v>
+        <v>-0.03604446948147556</v>
       </c>
       <c r="C83">
-        <v>0.02027542127684643</v>
+        <v>0.02935297503194205</v>
       </c>
       <c r="D83">
-        <v>0.03844253900898106</v>
+        <v>0.005741687065936372</v>
       </c>
       <c r="E83">
-        <v>-0.001131455344931985</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02790855479219002</v>
+      </c>
+      <c r="F83">
+        <v>0.03231216042729863</v>
+      </c>
+      <c r="G83">
+        <v>0.06050196084027699</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.02117756450571877</v>
+        <v>-0.2152961481335313</v>
       </c>
       <c r="C85">
-        <v>0.1040972736642126</v>
+        <v>0.1451612912939322</v>
       </c>
       <c r="D85">
-        <v>0.2735301627894779</v>
+        <v>-0.01914720771555465</v>
       </c>
       <c r="E85">
-        <v>0.03652755719652247</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09999012426032894</v>
+      </c>
+      <c r="F85">
+        <v>-0.1394262198699915</v>
+      </c>
+      <c r="G85">
+        <v>-0.1082332827712743</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009600559665040895</v>
+        <v>-0.01363880272833507</v>
       </c>
       <c r="C86">
-        <v>0.02076493651845636</v>
+        <v>0.02906631263386382</v>
       </c>
       <c r="D86">
-        <v>0.05547489502846274</v>
+        <v>0.01259353028977307</v>
       </c>
       <c r="E86">
-        <v>-0.03676937576452823</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04836480045938883</v>
+      </c>
+      <c r="F86">
+        <v>0.03102174795025733</v>
+      </c>
+      <c r="G86">
+        <v>0.1852933841505451</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007959388289193542</v>
+        <v>-0.02281615809931437</v>
       </c>
       <c r="C87">
-        <v>-0.004289319051942526</v>
+        <v>0.02393439497016667</v>
       </c>
       <c r="D87">
-        <v>0.056544799262806</v>
+        <v>0.01218716177547525</v>
       </c>
       <c r="E87">
-        <v>-0.01027264924498167</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08695416666214921</v>
+      </c>
+      <c r="F87">
+        <v>0.01523482607114885</v>
+      </c>
+      <c r="G87">
+        <v>0.1171749380413572</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02852911116396628</v>
+        <v>-0.09204652950268415</v>
       </c>
       <c r="C88">
-        <v>0.02640158241694343</v>
+        <v>0.06639681064286033</v>
       </c>
       <c r="D88">
-        <v>0.05431243336698553</v>
+        <v>0.02240656753895061</v>
       </c>
       <c r="E88">
-        <v>0.002524921591614349</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.00842597058365363</v>
+      </c>
+      <c r="F88">
+        <v>-0.01639666755849373</v>
+      </c>
+      <c r="G88">
+        <v>0.08460460789966316</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.09301437618212975</v>
+        <v>-0.2344769004279824</v>
       </c>
       <c r="C89">
-        <v>0.4070710545520966</v>
+        <v>-0.3673591572450431</v>
       </c>
       <c r="D89">
-        <v>-0.1753607259887102</v>
+        <v>0.0007565480401769111</v>
       </c>
       <c r="E89">
-        <v>0.01655497735059285</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01074826481174584</v>
+      </c>
+      <c r="F89">
+        <v>-0.02546067499210829</v>
+      </c>
+      <c r="G89">
+        <v>0.06378483411885501</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.07145213023756931</v>
+        <v>-0.2078372836882085</v>
       </c>
       <c r="C90">
-        <v>0.3228750394668751</v>
+        <v>-0.3194556537391778</v>
       </c>
       <c r="D90">
-        <v>-0.1659268493064261</v>
+        <v>-0.003916283858038522</v>
       </c>
       <c r="E90">
-        <v>-0.01706768392418658</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.003114608185453777</v>
+      </c>
+      <c r="F90">
+        <v>-0.05268312571423264</v>
+      </c>
+      <c r="G90">
+        <v>0.03637101266039425</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.0115660086815435</v>
+        <v>-0.1881617693920495</v>
       </c>
       <c r="C91">
-        <v>0.1209812151255127</v>
+        <v>0.1391725960020248</v>
       </c>
       <c r="D91">
-        <v>0.2257387500369938</v>
+        <v>-0.02333983447901003</v>
       </c>
       <c r="E91">
-        <v>0.03756013848006174</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06363709853392742</v>
+      </c>
+      <c r="F91">
+        <v>-0.1499449793239382</v>
+      </c>
+      <c r="G91">
+        <v>0.01223400119388356</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.03916335669672139</v>
+        <v>-0.2012925169281042</v>
       </c>
       <c r="C92">
-        <v>0.3290533837768899</v>
+        <v>-0.2570898694417274</v>
       </c>
       <c r="D92">
-        <v>-0.06053078946128302</v>
+        <v>-0.03826958581741116</v>
       </c>
       <c r="E92">
-        <v>-0.02267263858879218</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.03114809939265719</v>
+      </c>
+      <c r="F92">
+        <v>-0.06158224918950122</v>
+      </c>
+      <c r="G92">
+        <v>0.1329039994506257</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.06992241513809661</v>
+        <v>-0.2333744048109216</v>
       </c>
       <c r="C93">
-        <v>0.3443455466208276</v>
+        <v>-0.3145489984285081</v>
       </c>
       <c r="D93">
-        <v>-0.136277987375977</v>
+        <v>-0.01076405441209518</v>
       </c>
       <c r="E93">
-        <v>-0.02956120951020839</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.008977277442377606</v>
+      </c>
+      <c r="F93">
+        <v>-0.0382244469736877</v>
+      </c>
+      <c r="G93">
+        <v>0.04706954243265053</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.03509998241271187</v>
+        <v>-0.3164845596726352</v>
       </c>
       <c r="C94">
-        <v>0.1401017979318769</v>
+        <v>0.1752794405892076</v>
       </c>
       <c r="D94">
-        <v>0.2423987081834791</v>
+        <v>-0.01852922735231948</v>
       </c>
       <c r="E94">
-        <v>0.01359112765418545</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1751583328091294</v>
+      </c>
+      <c r="F94">
+        <v>-0.4726367360305028</v>
+      </c>
+      <c r="G94">
+        <v>-0.3625513286911343</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.003095859161947379</v>
+        <v>-0.09954601000305985</v>
       </c>
       <c r="C95">
-        <v>0.02835300984183884</v>
+        <v>0.08590129533839323</v>
       </c>
       <c r="D95">
-        <v>0.1168875337540886</v>
+        <v>-0.009880872910319716</v>
       </c>
       <c r="E95">
-        <v>-0.130900718013332</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07259453531649297</v>
+      </c>
+      <c r="F95">
+        <v>0.2055406587811407</v>
+      </c>
+      <c r="G95">
+        <v>-0.06847479616340328</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.0188623639661558</v>
+        <v>-0.1972067826183869</v>
       </c>
       <c r="C98">
-        <v>0.1441715341374723</v>
+        <v>0.04794754391812249</v>
       </c>
       <c r="D98">
-        <v>0.1676364850515951</v>
+        <v>-0.01238775564753225</v>
       </c>
       <c r="E98">
-        <v>-0.0116183882333971</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06798787202956144</v>
+      </c>
+      <c r="F98">
+        <v>0.2418874173821199</v>
+      </c>
+      <c r="G98">
+        <v>-0.0135035010773895</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.009081928878052337</v>
+        <v>-0.009326084999782401</v>
       </c>
       <c r="C101">
-        <v>0.01521324517918238</v>
+        <v>0.02264980832423935</v>
       </c>
       <c r="D101">
-        <v>0.01780607746445375</v>
+        <v>0.008645897756675916</v>
       </c>
       <c r="E101">
-        <v>0.004837620368402654</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.001375777308746823</v>
+      </c>
+      <c r="F101">
+        <v>-0.01838250137016544</v>
+      </c>
+      <c r="G101">
+        <v>0.0927345219446733</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.0191571468971961</v>
+        <v>-0.1175103312070435</v>
       </c>
       <c r="C102">
-        <v>0.05646522339251063</v>
+        <v>0.084185589548956</v>
       </c>
       <c r="D102">
-        <v>0.1296839178636515</v>
+        <v>0.0004757939814032416</v>
       </c>
       <c r="E102">
-        <v>0.01713538932104791</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03510755755552329</v>
+      </c>
+      <c r="F102">
+        <v>-0.04008278511242569</v>
+      </c>
+      <c r="G102">
+        <v>0.000324383569948477</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.0007182769031811735</v>
+        <v>-0.00113991356933637</v>
       </c>
       <c r="C103">
-        <v>0.002011481508388108</v>
+        <v>0.002272274741664116</v>
       </c>
       <c r="D103">
-        <v>0.009667667300454213</v>
+        <v>0.0001836151043062828</v>
       </c>
       <c r="E103">
-        <v>-0.003755694889840025</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.002742654044195771</v>
+      </c>
+      <c r="F103">
+        <v>-0.005372843141226371</v>
+      </c>
+      <c r="G103">
+        <v>0.00352435164309456</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9708226674383333</v>
+        <v>-0.02097875023752165</v>
       </c>
       <c r="C104">
-        <v>-0.1953460829370993</v>
+        <v>-0.02865125931090001</v>
       </c>
       <c r="D104">
-        <v>-0.03406965557703017</v>
+        <v>0.9875026699198992</v>
       </c>
       <c r="E104">
-        <v>0.03865767808082763</v>
+        <v>-0.04928056408324434</v>
+      </c>
+      <c r="F104">
+        <v>-0.03868118517474205</v>
+      </c>
+      <c r="G104">
+        <v>-0.03153556744506718</v>
       </c>
     </row>
   </sheetData>
